--- a/WSB_sentiment_correlation_summary.xlsx
+++ b/WSB_sentiment_correlation_summary.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C16"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
